--- a/Listen/ExportTest.xlsx
+++ b/Listen/ExportTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Desktop\ProExcelImportExport\Listen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7509AFE-8912-444A-A9E3-662E4C26067B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B438F46C-DEA7-433F-A0A1-7EB1F0BAF001}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16650" windowHeight="5250" xr2:uid="{8940CCA5-0526-4051-9542-2D6CF1B6003C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16650" windowHeight="5250" xr2:uid="{DFAEBBE2-7885-4251-90F1-E981FD2B2BC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -4974,7 +4974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BB09EF-4729-41BA-9E7C-C7B8F5A08539}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DFC5E6E-969A-45D1-98F6-42C5A6201B1A}">
   <dimension ref="A1:L415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
